--- a/MySQL/데이터베이스설계/테이블명세-양식-다이어트.xlsx
+++ b/MySQL/데이터베이스설계/테이블명세-양식-다이어트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KS50517\Documents\workspace\DBMS\MySQL\데이터베이스설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58135741-D762-4181-A81D-7854426DAF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD507F6-D823-420D-8A80-10E9D1A1B0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -763,6 +763,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -791,9 +794,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1141,7 +1141,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:H11"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1799,18 +1799,18 @@
       <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="32" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="36"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -1822,34 +1822,34 @@
       <c r="C3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="33" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="37"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="38"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="30"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -1936,7 +1936,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
-      <c r="L7" s="38" t="s">
+      <c r="L7" s="28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="38" t="s">
+      <c r="L8" s="28" t="s">
         <v>34</v>
       </c>
     </row>
